--- a/ddr_layout_V5/software/dma_ddr_to_dac/dma transmit time.xlsx
+++ b/ddr_layout_V5/software/dma_ddr_to_dac/dma transmit time.xlsx
@@ -7,41 +7,128 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="dma transmit time" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
-  <si>
-    <t>system freq= 54000000 Hz</t>
-  </si>
-  <si>
-    <t>打开发送通道.</t>
-  </si>
-  <si>
-    <t>start send.</t>
-  </si>
-  <si>
-    <t>Transfer successful!</t>
-  </si>
-  <si>
-    <t>dma dword transmit: size=0x1000 t0=10496 t1=18461 dt=7965 time=0.000148</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dma dword transmit: size=0x10000 t0=10613 t1=94657 dt=84044 time=0.001556s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dma dword transmit: size=0x1000000 t0=10576 t1=20984233 dt=20973657 time=0.388401s</t>
-  </si>
-  <si>
-    <t>dma dword transmit: size=0x100000 t0=10589 t1=1323325 dt=1312736 time=0.024310s</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+  <si>
+    <t>0x100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed(MB/s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed(4MB/s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length(hex byte)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device clk(MHz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu freq=108M Hz
+DMA clock=54M Hz
+DMA fifo=1024
+DMA mode=32 bit,ddr-&gt;device
+DDR mode=instructions  &amp; data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cpu freq=108M Hz
+DMA clock=54M Hz
+DMA fifo=1024
+DMA mode=32 bit,ddr-&gt;device</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with waitrequest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+DDR mode=instructions  &amp; data</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -49,7 +136,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +154,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -73,7 +171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -81,12 +179,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -388,136 +541,447 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K24"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="E3" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
         <v>1.4799999999999999E-4</v>
       </c>
-      <c r="K2">
-        <f>J2*16</f>
-        <v>2.3679999999999999E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3">
+      <c r="C4" s="6">
         <v>1.5560000000000001E-3</v>
       </c>
-      <c r="K3">
-        <f>J3*16</f>
-        <v>2.4896000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="D4" s="6">
+        <v>2.4309999999999998E-2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.388401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6">
+        <f>HEX2DEC(RIGHT(B3,LEN(B3)-2))/B4/1000000</f>
+        <v>27.675675675675674</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" ref="C5:E5" si="0">HEX2DEC(RIGHT(C3,LEN(C3)-2))/C4/1000000</f>
+        <v>42.11825192802057</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>43.133525298231184</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>43.195604542727743</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6">
+        <f>B5/4</f>
+        <v>6.9189189189189184</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" ref="C6:E6" si="1">C5/4</f>
+        <v>10.529562982005142</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="1"/>
+        <v>10.783381324557796</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="1"/>
+        <v>10.798901135681936</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J4">
-        <v>2.4309999999999998E-2</v>
-      </c>
-      <c r="K4">
-        <f>J4*16</f>
-        <v>0.38895999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="B11" s="6">
+        <v>1.45E-4</v>
+      </c>
+      <c r="C11" s="6">
+        <v>5.5099999999999995E-4</v>
+      </c>
+      <c r="D11" s="6">
+        <v>8.2279999999999992E-3</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.131108</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2.0971880000000001</v>
+      </c>
+      <c r="G11" s="6">
+        <v>20.971556</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1.3107569999999999</v>
+      </c>
+      <c r="I11" s="6">
+        <v>8.1952999999999998E-2</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.81922300000000003</v>
+      </c>
+      <c r="K11" s="6">
+        <v>5.1228999999999997E-2</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0.51182000000000005</v>
+      </c>
+      <c r="M11" s="6">
+        <v>3.1729E-2</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0.32134800000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>54</v>
+      </c>
+      <c r="C12" s="6">
+        <v>54</v>
+      </c>
+      <c r="D12" s="6">
+        <v>54</v>
+      </c>
+      <c r="E12" s="6">
+        <v>54</v>
+      </c>
+      <c r="F12" s="6">
+        <v>54</v>
+      </c>
+      <c r="G12" s="6">
+        <v>540</v>
+      </c>
+      <c r="H12" s="6">
+        <v>540</v>
+      </c>
+      <c r="I12" s="6">
+        <v>540</v>
+      </c>
+      <c r="J12" s="6">
+        <v>5400</v>
+      </c>
+      <c r="K12" s="6">
+        <v>5400</v>
+      </c>
+      <c r="L12" s="6">
+        <v>54000</v>
+      </c>
+      <c r="M12" s="6">
+        <v>54000</v>
+      </c>
+      <c r="N12" s="6">
+        <v>540000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6">
+        <f>108/B12</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="C13" s="6">
+        <f t="shared" ref="C13:N13" si="2">108/C12</f>
+        <v>2</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="2"/>
+        <v>2E-3</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="2"/>
+        <v>2E-3</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+      <c r="B14" s="6">
+        <f>HEX2DEC(RIGHT(B10,LEN(B10)-2))/B11/1000000</f>
+        <v>1.7655172413793103</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" ref="C14:N14" si="3">HEX2DEC(RIGHT(C10,LEN(C10)-2))/C11/1000000</f>
+        <v>7.4337568058076231</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="3"/>
+        <v>7.9649975692756447</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="3"/>
+        <v>7.9978033377063182</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="3"/>
+        <v>7.9998626732558069</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="3"/>
+        <v>0.79999862671134181</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="3"/>
+        <v>0.7999774176296599</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="3"/>
+        <v>0.79967786414164221</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="3"/>
+        <v>7.9997753969309943E-2</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="3"/>
+        <v>7.9954713150754461E-2</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="3"/>
+        <v>8.0028134891172668E-3</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" si="3"/>
+        <v>8.0683286583251908E-3</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="3"/>
+        <v>7.9664413657467908E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B15" s="6">
+        <f>B14/4</f>
+        <v>0.44137931034482758</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" ref="C15:N15" si="4">C14/4</f>
+        <v>1.8584392014519058</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="4"/>
+        <v>1.9912493923189112</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="4"/>
+        <v>1.9994508344265796</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="4"/>
+        <v>1.9999656683139517</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="4"/>
+        <v>0.19999965667783545</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="4"/>
+        <v>0.19999435440741498</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="4"/>
+        <v>0.19991946603541055</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="4"/>
+        <v>1.9999438492327486E-2</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" si="4"/>
+        <v>1.9988678287688615E-2</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="4"/>
+        <v>2.0007033722793167E-3</v>
+      </c>
+      <c r="M15" s="6">
+        <f t="shared" si="4"/>
+        <v>2.0170821645812977E-3</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="4"/>
+        <v>1.9916103414366977E-4</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A9:N9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -528,20 +992,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>

--- a/ddr_layout_V5/software/dma_ddr_to_dac/dma transmit time.xlsx
+++ b/ddr_layout_V5/software/dma_ddr_to_dac/dma transmit time.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
   <si>
     <t>0x100000</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,13 +131,39 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>cpu freq=108M Hz
+DMA clock=108M Hz
+DMA fifo=4096
+DMA mode=32 bit,ddr-&gt;device
+DDR mode=instructions  &amp; data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结论DMA传输中fifo和dma时钟均不是传输瓶颈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu freq=108M Hz
+DMA clock=108M Hz
+DMA fifo=4096
+DMA mode=32 bit,ddr-&gt;device
+DDR mode=data
+run=onchipram 
+ddr burst=4/64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -171,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -199,7 +225,9 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -208,31 +236,59 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -240,6 +296,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -541,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -554,108 +623,258 @@
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="12"/>
+    </row>
+    <row r="2" spans="1:15" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>1.4799999999999999E-4</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>1.5560000000000001E-3</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>2.4309999999999998E-2</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>0.388401</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="F4" s="4">
+        <v>1.57E-3</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1.5479999999999999E-3</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <f>HEX2DEC(RIGHT(B3,LEN(B3)-2))/B4/1000000</f>
         <v>27.675675675675674</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <f t="shared" ref="C5:E5" si="0">HEX2DEC(RIGHT(C3,LEN(C3)-2))/C4/1000000</f>
         <v>42.11825192802057</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <f t="shared" si="0"/>
         <v>43.133525298231184</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <f t="shared" si="0"/>
         <v>43.195604542727743</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="F5" s="4">
+        <f t="shared" ref="F5:G5" si="1">HEX2DEC(RIGHT(F3,LEN(F3)-2))/F4/1000000</f>
+        <v>41.742675159235674</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" ref="K5:L5" si="2">HEX2DEC(RIGHT(K3,LEN(K3)-2))/K4/1000000</f>
+        <v>42.3359173126615</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <f>B5/4</f>
         <v>6.9189189189189184</v>
       </c>
-      <c r="C6" s="6">
-        <f t="shared" ref="C6:E6" si="1">C5/4</f>
+      <c r="C6" s="4">
+        <f t="shared" ref="C6:E6" si="3">C5/4</f>
         <v>10.529562982005142</v>
       </c>
-      <c r="D6" s="6">
-        <f t="shared" si="1"/>
+      <c r="D6" s="4">
+        <f t="shared" si="3"/>
         <v>10.783381324557796</v>
       </c>
-      <c r="E6" s="6">
-        <f t="shared" si="1"/>
+      <c r="E6" s="4">
+        <f t="shared" si="3"/>
         <v>10.798901135681936</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F6" s="4">
+        <f t="shared" ref="F6:G6" si="4">F5/4</f>
+        <v>10.435668789808918</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" ref="K6:L6" si="5">K5/4</f>
+        <v>10.583979328165375</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
@@ -671,316 +890,320 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>1.45E-4</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>5.5099999999999995E-4</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>8.2279999999999992E-3</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>0.131108</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>2.0971880000000001</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>20.971556</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="4">
         <v>1.3107569999999999</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="4">
         <v>8.1952999999999998E-2</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="4">
         <v>0.81922300000000003</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="4">
         <v>5.1228999999999997E-2</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="4">
         <v>0.51182000000000005</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="4">
         <v>3.1729E-2</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="4">
         <v>0.32134800000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>54</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>54</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="4">
         <v>54</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>54</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <v>54</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <v>540</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="4">
         <v>540</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="4">
         <v>540</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="4">
         <v>5400</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="4">
         <v>5400</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="4">
         <v>54000</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="4">
         <v>54000</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="4">
         <v>540000</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <f>108/B12</f>
         <v>2</v>
       </c>
-      <c r="C13" s="6">
-        <f t="shared" ref="C13:N13" si="2">108/C12</f>
+      <c r="C13" s="4">
+        <f t="shared" ref="C13:N13" si="6">108/C12</f>
         <v>2</v>
       </c>
-      <c r="D13" s="6">
-        <f t="shared" si="2"/>
+      <c r="D13" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="E13" s="6">
-        <f t="shared" si="2"/>
+      <c r="E13" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="F13" s="6">
-        <f t="shared" si="2"/>
+      <c r="F13" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="G13" s="6">
-        <f t="shared" si="2"/>
+      <c r="G13" s="4">
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
-      <c r="H13" s="6">
-        <f t="shared" si="2"/>
+      <c r="H13" s="4">
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
-      <c r="I13" s="6">
-        <f t="shared" si="2"/>
+      <c r="I13" s="4">
+        <f t="shared" si="6"/>
         <v>0.2</v>
       </c>
-      <c r="J13" s="6">
-        <f t="shared" si="2"/>
+      <c r="J13" s="4">
+        <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
-      <c r="K13" s="6">
-        <f t="shared" si="2"/>
+      <c r="K13" s="4">
+        <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
-      <c r="L13" s="6">
-        <f t="shared" si="2"/>
+      <c r="L13" s="4">
+        <f t="shared" si="6"/>
         <v>2E-3</v>
       </c>
-      <c r="M13" s="6">
-        <f t="shared" si="2"/>
+      <c r="M13" s="4">
+        <f t="shared" si="6"/>
         <v>2E-3</v>
       </c>
-      <c r="N13" s="6">
-        <f t="shared" si="2"/>
+      <c r="N13" s="4">
+        <f t="shared" si="6"/>
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <f>HEX2DEC(RIGHT(B10,LEN(B10)-2))/B11/1000000</f>
         <v>1.7655172413793103</v>
       </c>
-      <c r="C14" s="6">
-        <f t="shared" ref="C14:N14" si="3">HEX2DEC(RIGHT(C10,LEN(C10)-2))/C11/1000000</f>
+      <c r="C14" s="4">
+        <f t="shared" ref="C14:N14" si="7">HEX2DEC(RIGHT(C10,LEN(C10)-2))/C11/1000000</f>
         <v>7.4337568058076231</v>
       </c>
-      <c r="D14" s="6">
-        <f t="shared" si="3"/>
+      <c r="D14" s="4">
+        <f t="shared" si="7"/>
         <v>7.9649975692756447</v>
       </c>
-      <c r="E14" s="6">
-        <f t="shared" si="3"/>
+      <c r="E14" s="4">
+        <f t="shared" si="7"/>
         <v>7.9978033377063182</v>
       </c>
-      <c r="F14" s="6">
-        <f t="shared" si="3"/>
+      <c r="F14" s="4">
+        <f t="shared" si="7"/>
         <v>7.9998626732558069</v>
       </c>
-      <c r="G14" s="6">
-        <f t="shared" si="3"/>
+      <c r="G14" s="4">
+        <f t="shared" si="7"/>
         <v>0.79999862671134181</v>
       </c>
-      <c r="H14" s="6">
-        <f t="shared" si="3"/>
+      <c r="H14" s="4">
+        <f t="shared" si="7"/>
         <v>0.7999774176296599</v>
       </c>
-      <c r="I14" s="6">
-        <f t="shared" si="3"/>
+      <c r="I14" s="4">
+        <f t="shared" si="7"/>
         <v>0.79967786414164221</v>
       </c>
-      <c r="J14" s="6">
-        <f t="shared" si="3"/>
+      <c r="J14" s="4">
+        <f t="shared" si="7"/>
         <v>7.9997753969309943E-2</v>
       </c>
-      <c r="K14" s="6">
-        <f t="shared" si="3"/>
+      <c r="K14" s="4">
+        <f t="shared" si="7"/>
         <v>7.9954713150754461E-2</v>
       </c>
-      <c r="L14" s="6">
-        <f t="shared" si="3"/>
+      <c r="L14" s="4">
+        <f t="shared" si="7"/>
         <v>8.0028134891172668E-3</v>
       </c>
-      <c r="M14" s="6">
-        <f t="shared" si="3"/>
+      <c r="M14" s="4">
+        <f t="shared" si="7"/>
         <v>8.0683286583251908E-3</v>
       </c>
-      <c r="N14" s="6">
-        <f t="shared" si="3"/>
+      <c r="N14" s="4">
+        <f t="shared" si="7"/>
         <v>7.9664413657467908E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <f>B14/4</f>
         <v>0.44137931034482758</v>
       </c>
-      <c r="C15" s="6">
-        <f t="shared" ref="C15:N15" si="4">C14/4</f>
+      <c r="C15" s="4">
+        <f t="shared" ref="C15:N15" si="8">C14/4</f>
         <v>1.8584392014519058</v>
       </c>
-      <c r="D15" s="6">
-        <f t="shared" si="4"/>
+      <c r="D15" s="4">
+        <f t="shared" si="8"/>
         <v>1.9912493923189112</v>
       </c>
-      <c r="E15" s="6">
-        <f t="shared" si="4"/>
+      <c r="E15" s="4">
+        <f t="shared" si="8"/>
         <v>1.9994508344265796</v>
       </c>
-      <c r="F15" s="6">
-        <f t="shared" si="4"/>
+      <c r="F15" s="4">
+        <f t="shared" si="8"/>
         <v>1.9999656683139517</v>
       </c>
-      <c r="G15" s="6">
-        <f t="shared" si="4"/>
+      <c r="G15" s="4">
+        <f t="shared" si="8"/>
         <v>0.19999965667783545</v>
       </c>
-      <c r="H15" s="6">
-        <f t="shared" si="4"/>
+      <c r="H15" s="4">
+        <f t="shared" si="8"/>
         <v>0.19999435440741498</v>
       </c>
-      <c r="I15" s="6">
-        <f t="shared" si="4"/>
+      <c r="I15" s="4">
+        <f t="shared" si="8"/>
         <v>0.19991946603541055</v>
       </c>
-      <c r="J15" s="6">
-        <f t="shared" si="4"/>
+      <c r="J15" s="4">
+        <f t="shared" si="8"/>
         <v>1.9999438492327486E-2</v>
       </c>
-      <c r="K15" s="6">
-        <f t="shared" si="4"/>
+      <c r="K15" s="4">
+        <f t="shared" si="8"/>
         <v>1.9988678287688615E-2</v>
       </c>
-      <c r="L15" s="6">
-        <f t="shared" si="4"/>
+      <c r="L15" s="4">
+        <f t="shared" si="8"/>
         <v>2.0007033722793167E-3</v>
       </c>
-      <c r="M15" s="6">
-        <f t="shared" si="4"/>
+      <c r="M15" s="4">
+        <f t="shared" si="8"/>
         <v>2.0170821645812977E-3</v>
       </c>
-      <c r="N15" s="6">
-        <f t="shared" si="4"/>
+      <c r="N15" s="4">
+        <f t="shared" si="8"/>
         <v>1.9916103414366977E-4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A9:N9"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="K2:O2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
